--- a/xlsx/ISO 4217_intext.xlsx
+++ b/xlsx/ISO 4217_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1739">
   <si>
     <t>ISO 4217</t>
   </si>
@@ -29,7 +29,7 @@
     <t>国际标准化组织</t>
   </si>
   <si>
-    <t>政策_政策_美國_ISO 4217</t>
+    <t>政策_政策_美国_ISO 4217</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B4%A7</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E7%A5%A8</t>
   </si>
   <si>
-    <t>機票</t>
+    <t>机票</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E8%BD%A6</t>
@@ -185,13 +185,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%9C%8B%E5%AE%B6%E4%B8%BB%E7%BE%A9_(%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82)</t>
   </si>
   <si>
-    <t>超國家主義 (國際關係)</t>
+    <t>超国家主义 (国际关系)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8A%A0%E5%8B%92%E6%AF%94%E5%85%83</t>
   </si>
   <si>
-    <t>東加勒比元</t>
+    <t>东加勒比元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%B3%95%E9%83%8E</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%9E%97%E7%AC%AC%E7%B4%8D%E7%88%BE</t>
   </si>
   <si>
-    <t>巴林第納爾</t>
+    <t>巴林第纳尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E5%A1%94%E5%B0%BC%E4%BA%9A</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E5%A1%94%E5%B0%BC%E4%BA%9E%E7%83%8F%E5%90%89%E4%BA%9E</t>
   </si>
   <si>
-    <t>毛里塔尼亞烏吉亞</t>
+    <t>毛里塔尼亚乌吉亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%BE%BE%E5%8A%A0%E6%96%AF%E5%8A%A0</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%81%94%E5%8A%A0%E6%96%AF%E5%8A%A0%E9%98%BF%E9%87%8C%E4%BA%9E%E9%87%8C</t>
   </si>
   <si>
-    <t>馬達加斯加阿里亞里</t>
+    <t>马达加斯加阿里亚里</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/iraimbilanja</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯聯合大公國</t>
+    <t>阿拉伯联合大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E5%B0%BC</t>
@@ -473,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%9E%E5%AE%89%E7%9A%84%E5%88%97%E6%96%AF%E7%9B%BE</t>
@@ -491,13 +491,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>荷屬聖馬丁</t>
+    <t>荷属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%A5%E6%8B%89%E5%AF%AC%E6%89%8E</t>
   </si>
   <si>
-    <t>安哥拉寬扎</t>
+    <t>安哥拉宽扎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%A5%E6%8B%89</t>
@@ -539,13 +539,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%A7%91%E6%96%AF%EF%BC%88%E5%9F%BA%E6%9E%97%EF%BC%89%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>科科斯（基林）群島</t>
+    <t>科科斯（基林）群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E5%BE%B7%E5%B3%B6%E5%92%8C%E9%BA%A5%E5%85%8B%E5%94%90%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>赫德島和麥克唐納群島</t>
+    <t>赫德岛和麦克唐纳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%87%8C%E5%B7%B4%E6%96%AF</t>
@@ -611,13 +611,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E5%B0%BC%E4%BA%9E%E8%88%87%E8%B5%AB%E5%A1%9E%E5%93%A5%E7%B6%AD%E7%B4%8D</t>
   </si>
   <si>
-    <t>波士尼亞與赫塞哥維納</t>
+    <t>波士尼亚与赫塞哥维纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%B2%9D%E5%A4%9A%E5%85%83</t>
   </si>
   <si>
-    <t>巴貝多元</t>
+    <t>巴贝多元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B7%B4%E5%A4%9A%E6%96%AF</t>
@@ -641,7 +641,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E%E5%88%97%E5%BC%97</t>
   </si>
   <si>
-    <t>保加利亞列弗</t>
+    <t>保加利亚列弗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A</t>
@@ -671,7 +671,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E9%81%94%E5%85%83</t>
   </si>
   <si>
-    <t>百慕達元</t>
+    <t>百慕达元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7</t>
@@ -683,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A%E5%85%83</t>
   </si>
   <si>
-    <t>汶萊元</t>
+    <t>汶莱元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%8E%B1</t>
@@ -701,13 +701,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E%E8%AB%BE</t>
   </si>
   <si>
-    <t>玻利維亞諾</t>
+    <t>玻利维亚诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E9%9B%B7%E4%BA%9A%E5%B0%94</t>
@@ -725,7 +725,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A6%AC%E5%85%83</t>
   </si>
   <si>
-    <t>巴哈馬元</t>
+    <t>巴哈马元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A9%AC</t>
@@ -761,19 +761,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF%E7%9B%A7%E5%B8%83</t>
   </si>
   <si>
-    <t>白俄羅斯盧布</t>
+    <t>白俄罗斯卢布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄羅斯</t>
+    <t>白俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E9%87%8C%E6%96%AF%E5%85%83</t>
   </si>
   <si>
-    <t>貝里斯元</t>
+    <t>贝里斯元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E5%85%B9</t>
@@ -797,13 +797,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E6%B3%95%E9%83%8E</t>
   </si>
   <si>
-    <t>剛果法郎</t>
+    <t>刚果法郎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果民主共和國</t>
+    <t>刚果民主共和国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/WIR_Bank</t>
@@ -899,7 +899,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%BE%B7%E8%A7%92%E5%9F%83%E6%96%AF%E5%BA%AB%E5%A4%9A</t>
   </si>
   <si>
-    <t>維德角埃斯庫多</t>
+    <t>维德角埃斯库多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E5%BE%97%E8%A7%92</t>
@@ -941,7 +941,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BD%97%E7%BE%A4%E5%B2%9B</t>
@@ -1013,19 +1013,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E%E6%AF%94%E7%88%BE</t>
   </si>
   <si>
-    <t>衣索比亞比爾</t>
+    <t>衣索比亚比尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>衣索比亞</t>
+    <t>衣索比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%85%8B%E7%BE%85%E6%8F%90%E5%88%A9%E8%88%87%E5%BE%B7%E5%87%B1%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞克羅提利與德凱利亞</t>
+    <t>亚克罗提利与德凯利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94</t>
@@ -1043,13 +1043,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
@@ -1073,13 +1073,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E5%BE%B7%E7%BD%97%E6%99%AE</t>
@@ -1091,13 +1091,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>愛爾蘭共和國</t>
+    <t>爱尔兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83</t>
@@ -1109,7 +1109,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
@@ -1127,13 +1127,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
   </si>
   <si>
-    <t>馬爾他</t>
+    <t>马尔他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8F%90%E5%B0%BC%E5%85%8B</t>
   </si>
   <si>
-    <t>馬提尼克</t>
+    <t>马提尼克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E7%BA%A6%E7%89%B9</t>
@@ -1145,19 +1145,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%B4%8D%E5%93%A5</t>
   </si>
   <si>
-    <t>摩納哥</t>
+    <t>摩纳哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
@@ -1199,7 +1199,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯洛維尼亞</t>
+    <t>斯洛维尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -1223,7 +1223,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%BF%9F%E5%85%83</t>
   </si>
   <si>
-    <t>斐濟元</t>
+    <t>斐济元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%B5%8E</t>
@@ -1235,13 +1235,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6%E9%8E%8A</t>
   </si>
   <si>
-    <t>福克蘭群島鎊</t>
+    <t>福克兰群岛镑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>福克蘭群島</t>
+    <t>福克兰群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E9%95%91</t>
@@ -1259,25 +1259,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
   </si>
   <si>
-    <t>曼島</t>
+    <t>曼岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6%E9%8E%8A</t>
   </si>
   <si>
-    <t>曼島鎊</t>
+    <t>曼岛镑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
   </si>
   <si>
-    <t>澤西</t>
+    <t>泽西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF%E5%B3%B6%E9%8E%8A</t>
   </si>
   <si>
-    <t>澤西島鎊</t>
+    <t>泽西岛镑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF</t>
@@ -1289,7 +1289,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF%E5%B3%B6%E9%8E%8A</t>
   </si>
   <si>
-    <t>根西島鎊</t>
+    <t>根西岛镑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%B9%94%E6%B2%BB%E4%BA%9A%E5%92%8C%E5%8D%97%E6%A1%91%E5%A8%81%E5%A5%87%E7%BE%A4%E5%B2%9B</t>
@@ -1301,7 +1301,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8D%B0%E5%BA%A6%E6%B4%8B%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>英屬印度洋領地</t>
+    <t>英属印度洋领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E9%87%8C%E6%96%AF%E5%9D%A6-%E8%BE%BE%E5%BA%93%E5%B0%BC%E4%BA%9A</t>
@@ -1349,7 +1349,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BE%85%E9%99%80%E9%8E%8A</t>
   </si>
   <si>
-    <t>直布羅陀鎊</t>
+    <t>直布罗陀镑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
@@ -1361,7 +1361,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E6%AF%94%E4%BA%9E%E9%81%94%E6%8B%89%E8%A5%BF</t>
   </si>
   <si>
-    <t>甘比亞達拉西</t>
+    <t>甘比亚达拉西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%88%E6%AF%94%E4%BA%9A</t>
@@ -1373,7 +1373,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%B3%95%E9%83%8E</t>
   </si>
   <si>
-    <t>幾內亞法郎</t>
+    <t>几内亚法郎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A</t>
@@ -1385,7 +1385,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E5%9C%B0%E9%A6%AC%E6%8B%89%E6%A0%BC%E6%9F%A5%E7%88%BE</t>
   </si>
   <si>
-    <t>瓜地馬拉格查爾</t>
+    <t>瓜地马拉格查尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89</t>
@@ -1421,13 +1421,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E9%83%BD%E6%8B%89%E6%96%AF%E5%80%AB%E7%9A%AE%E6%8B%89</t>
   </si>
   <si>
-    <t>宏都拉斯倫皮拉</t>
+    <t>宏都拉斯伦皮拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF</t>
@@ -1439,7 +1439,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E%E5%BA%AB%E7%B4%8D</t>
   </si>
   <si>
-    <t>克羅埃西亞庫納</t>
+    <t>克罗埃西亚库纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A</t>
@@ -1499,7 +1499,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E5%9C%8B</t>
   </si>
   <si>
-    <t>巴勒斯坦國</t>
+    <t>巴勒斯坦国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%8D%A2%E6%AF%94</t>
@@ -1529,7 +1529,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E7%AC%AC%E7%B4%8D%E7%88%BE</t>
   </si>
   <si>
-    <t>伊拉克第納爾</t>
+    <t>伊拉克第纳尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
@@ -1541,7 +1541,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E9%87%8C%E4%BA%9E%E7%88%BE</t>
   </si>
   <si>
-    <t>伊朗里亞爾</t>
+    <t>伊朗里亚尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97</t>
@@ -1559,13 +1559,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
+    <t>冰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0%E5%85%83</t>
   </si>
   <si>
-    <t>牙買加元</t>
+    <t>牙买加元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0</t>
@@ -1577,7 +1577,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%97%A6%E7%AC%AC%E7%B4%8D%E7%88%BE</t>
   </si>
   <si>
-    <t>約旦第納爾</t>
+    <t>约旦第纳尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6</t>
@@ -1589,7 +1589,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%97%A6%E6%B2%B3%E8%A5%BF%E5%B2%B8%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>約旦河西岸地區</t>
+    <t>约旦河西岸地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%9C%86</t>
@@ -1607,7 +1607,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E4%BA%9E%E5%85%88%E4%BB%A4</t>
   </si>
   <si>
-    <t>肯亞先令</t>
+    <t>肯亚先令</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%B0%BC%E4%BA%9A</t>
@@ -1625,13 +1625,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E5%90%89%E6%96%AF</t>
   </si>
   <si>
-    <t>吉爾吉斯</t>
+    <t>吉尔吉斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E7%91%9E%E7%88%BE</t>
   </si>
   <si>
-    <t>柬埔寨瑞爾</t>
+    <t>柬埔寨瑞尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8</t>
@@ -1655,7 +1655,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E5%9C%93</t>
   </si>
   <si>
-    <t>朝鮮圓</t>
+    <t>朝鲜圆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%B0%91%E4%B8%BB%E4%B8%BB%E4%B9%89%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1715,7 +1715,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%AE%E5%9C%8B%E5%9F%BA%E6%99%AE</t>
   </si>
   <si>
-    <t>寮國基普</t>
+    <t>寮国基普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%8C%9D</t>
@@ -1739,19 +1739,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1%E7%9B%A7%E6%AF%94</t>
   </si>
   <si>
-    <t>斯里蘭卡盧比</t>
+    <t>斯里兰卡卢比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
+    <t>斯里兰卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E6%AF%94%E7%91%9E%E4%BA%9E%E5%85%83</t>
   </si>
   <si>
-    <t>賴比瑞亞元</t>
+    <t>赖比瑞亚元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E9%87%8C%E4%BA%9A</t>
@@ -1763,19 +1763,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E7%B4%A2%E6%89%98%E6%B4%9B%E8%92%82</t>
   </si>
   <si>
-    <t>賴索托洛蒂</t>
+    <t>赖索托洛蒂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E7%B4%A2%E6%89%98</t>
   </si>
   <si>
-    <t>賴索托</t>
+    <t>赖索托</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9E%E7%AC%AC%E7%B4%8D%E7%88%BE</t>
   </si>
   <si>
-    <t>利比亞第納爾</t>
+    <t>利比亚第纳尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A</t>
@@ -1799,7 +1799,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%88%BE%E5%A4%9A%E7%93%A6%E5%88%97%E4%BC%8A</t>
   </si>
   <si>
-    <t>摩爾多瓦列伊</t>
+    <t>摩尔多瓦列伊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
@@ -1823,7 +1823,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓共和國</t>
+    <t>马其顿共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%85%83</t>
@@ -1835,7 +1835,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8</t>
   </si>
   <si>
-    <t>緬甸</t>
+    <t>缅甸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9B%BE%E6%A0%BC%E9%87%8C%E5%85%8B</t>
@@ -1859,7 +1859,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%A1%E9%87%8C%E8%A5%BF%E6%96%AF%E7%9B%A7%E6%AF%94</t>
   </si>
   <si>
-    <t>模里西斯盧比</t>
+    <t>模里西斯卢比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%A1%E9%87%8C%E8%A5%BF%E6%96%AF</t>
@@ -1871,25 +1871,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E5%9C%B0%E5%A4%AB%E6%8B%89%E8%8F%B2%E4%BA%9E</t>
   </si>
   <si>
-    <t>馬爾地夫拉菲亞</t>
+    <t>马尔地夫拉菲亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E5%9C%B0%E5%A4%AB</t>
   </si>
   <si>
-    <t>馬爾地夫</t>
+    <t>马尔地夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E5%A8%81%E5%85%8B%E7%93%A6%E6%9F%A5</t>
   </si>
   <si>
-    <t>馬拉威克瓦查</t>
+    <t>马拉威克瓦查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E5%A8%81</t>
   </si>
   <si>
-    <t>馬拉威</t>
+    <t>马拉威</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E6%AF%94%E7%B4%A2</t>
@@ -1919,7 +1919,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E4%B8%89%E6%AF%94%E5%85%8B%E6%A2%85%E8%92%82%E5%8D%A1%E7%88%BE</t>
   </si>
   <si>
-    <t>莫三比克梅蒂卡爾</t>
+    <t>莫三比克梅蒂卡尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B</t>
@@ -1931,7 +1931,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B1%B3%E6%AF%94%E4%BA%9E%E5%85%83</t>
   </si>
   <si>
-    <t>納米比亞元</t>
+    <t>纳米比亚元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%B1%B3%E6%AF%94%E4%BA%9A</t>
@@ -1949,7 +1949,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C%E7%A7%91%E5%A4%9A%E5%B7%B4</t>
@@ -1985,7 +1985,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6</t>
   </si>
   <si>
-    <t>揚馬延</t>
+    <t>扬马延</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%9F%A6%E5%B2%9B</t>
@@ -2003,19 +2003,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD%E5%85%83</t>
   </si>
   <si>
-    <t>紐西蘭元</t>
+    <t>纽西兰元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E5%85%8B%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>庫克群島</t>
+    <t>库克群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E5%9F%83</t>
@@ -2033,7 +2033,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%85%8B%E5%8B%9E</t>
   </si>
   <si>
-    <t>托克勞</t>
+    <t>托克劳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%9B%BC%E9%87%8C%E4%BA%9A%E5%B0%94</t>
@@ -2051,7 +2051,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A6%AC%E5%B7%B4%E6%B3%A2%E4%BA%9E</t>
   </si>
   <si>
-    <t>巴拿馬巴波亞</t>
+    <t>巴拿马巴波亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC</t>
@@ -2069,13 +2069,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9E%E7%B4%90%E5%B9%BE%E5%85%A7%E4%BA%9E%E5%9F%BA%E9%82%A3</t>
   </si>
   <si>
-    <t>巴布亞紐幾內亞基那</t>
+    <t>巴布亚纽几内亚基那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9A%E6%96%B0%E5%87%A0%E5%86%85%E4%BA%9A</t>
@@ -2093,13 +2093,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6%E7%9B%A7%E6%AF%94</t>
   </si>
   <si>
-    <t>巴基斯坦盧比</t>
+    <t>巴基斯坦卢比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
@@ -2117,7 +2117,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD%E7%93%9C%E6%8B%89%E5%B0%BC</t>
@@ -2141,7 +2141,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%81%94</t>
   </si>
   <si>
-    <t>卡達</t>
+    <t>卡达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%B0%BC%E4%BA%9A%E5%88%97%E4%BC%8A</t>
@@ -2153,19 +2153,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E%E7%AC%AC%E7%B4%8D%E7%88%BE</t>
   </si>
   <si>
-    <t>塞爾維亞第納爾</t>
+    <t>塞尔维亚第纳尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>塞爾維亞</t>
+    <t>塞尔维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E5%8D%A2%E5%B8%83</t>
@@ -2177,7 +2177,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E7%B1%B3%E4%BA%9A%E8%87%AA%E6%B2%BB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -2207,7 +2207,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%80%E7%BD%97%E9%97%A8%E7%BE%A4%E5%B2%9B%E5%85%83</t>
@@ -2225,7 +2225,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B8%AD%E7%88%BE%E7%9B%A7%E6%AF%94</t>
   </si>
   <si>
-    <t>塞席爾盧比</t>
+    <t>塞席尔卢比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E8%88%8C%E5%B0%94</t>
@@ -2273,7 +2273,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B5%AB%E5%8B%92%E6%8B%BF</t>
   </si>
   <si>
-    <t>聖赫勒拿</t>
+    <t>圣赫勒拿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A3%AE%E6%9D%BE%E5%B2%9B</t>
@@ -2303,13 +2303,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>索馬利亞</t>
+    <t>索马利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E8%98%AD</t>
   </si>
   <si>
-    <t>索馬利蘭</t>
+    <t>索马利兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E9%87%8C%E5%8D%97%E5%85%83</t>
@@ -2327,13 +2327,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%98%87%E4%B8%B9%E9%8E%8A</t>
   </si>
   <si>
-    <t>南蘇丹鎊</t>
+    <t>南苏丹镑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%98%87%E4%B8%B9</t>
   </si>
   <si>
-    <t>南蘇丹</t>
+    <t>南苏丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94%E5%A4%9A%E5%B8%83%E6%8B%89</t>
@@ -2345,13 +2345,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
   </si>
   <si>
-    <t>聖多美和普林西比</t>
+    <t>圣多美和普林西比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E%E9%8E%8A</t>
   </si>
   <si>
-    <t>敘利亞鎊</t>
+    <t>叙利亚镑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
@@ -2363,7 +2363,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E7%93%A6%E6%BF%9F%E8%98%AD%E9%87%8C%E8%98%AD%E5%90%89%E5%B0%BC</t>
   </si>
   <si>
-    <t>史瓦濟蘭里蘭吉尼</t>
+    <t>史瓦济兰里兰吉尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A8%81%E5%A3%AB%E5%85%B0</t>
@@ -2375,13 +2375,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E9%8A%96</t>
   </si>
   <si>
-    <t>泰銖</t>
+    <t>泰铢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B%E6%96%AF%E5%9D%A6%E7%B4%A2%E8%8E%AB%E5%B0%BC</t>
@@ -2417,7 +2417,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%A4%E5%8A%A0%E6%BD%98%E5%8A%A0</t>
@@ -2447,7 +2447,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF%E5%9C%9F%E8%80%B3%E5%85%B6%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>北賽普勒斯土耳其共和國</t>
+    <t>北赛普勒斯土耳其共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%AB%8B%E5%B0%BC%E8%BE%BE%E5%92%8C%E5%A4%9A%E5%B7%B4%E5%93%A5%E5%85%83</t>
@@ -2459,19 +2459,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8F%B0%E5%B9%A3</t>
   </si>
   <si>
-    <t>新台幣</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E6%A1%91%E5%B0%BC%E4%BA%9A%E5%85%88%E4%BB%A4</t>
@@ -2495,13 +2492,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%B9%B2%E9%81%94%E5%85%88%E4%BB%A4</t>
   </si>
   <si>
-    <t>烏干達先令</t>
+    <t>乌干达先令</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%B9%B2%E8%BE%BE</t>
@@ -2513,7 +2510,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%9E%E8%90%A8%E6%91%A9%E4%BA%9A</t>
@@ -2525,7 +2522,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>英屬維爾京群島</t>
+    <t>英属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E8%8D%B7%E5%85%B0</t>
@@ -2543,13 +2540,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A</t>
   </si>
   <si>
-    <t>薩爾瓦多</t>
+    <t>萨尔瓦多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E7%BB%8D%E5%B0%94%E7%BE%A4%E5%B2%9B</t>
@@ -2561,13 +2558,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%85%8B%E7%BE%85%E5%B0%BC%E8%A5%BF%E4%BA%9E%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>密克羅尼西亞聯邦</t>
+    <t>密克罗尼西亚联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A6%AC%E9%87%8C%E4%BA%9E%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>北馬里亞納群島</t>
+    <t>北马里亚纳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9B%E7%90%89</t>
@@ -2591,13 +2588,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%85%8B%E6%96%AF%E8%88%87%E5%87%B1%E7%A7%91%E6%96%AF%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>特克斯與凱科斯群島</t>
+    <t>特克斯与凯科斯群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
@@ -2609,7 +2606,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%9C%AD%E6%AF%94%E7%B4%A2</t>
   </si>
   <si>
-    <t>烏拉圭比索</t>
+    <t>乌拉圭比索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%B9%E5%88%AB%E5%85%8B%E6%96%AF%E5%9D%A6%E7%B4%A2%E5%A7%86</t>
@@ -2621,19 +2618,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B</t>
   </si>
   <si>
-    <t>烏茲別克</t>
+    <t>乌兹别克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89%E7%8E%BB%E5%88%A9%E7%93%A6%E7%88%BE</t>
   </si>
   <si>
-    <t>委內瑞拉玻利瓦爾</t>
+    <t>委内瑞拉玻利瓦尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E7%9B%BE</t>
@@ -2651,13 +2648,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E9%82%A3%E6%9D%9C%E7%93%A6%E5%9C%96</t>
   </si>
   <si>
-    <t>萬那杜瓦圖</t>
+    <t>万那杜瓦图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%8A%AA%E9%98%BF%E5%9C%96</t>
   </si>
   <si>
-    <t>瓦努阿圖</t>
+    <t>瓦努阿图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E6%91%A9%E4%BA%9A%E5%A1%94%E6%8B%89</t>
@@ -2687,7 +2684,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果共和國</t>
+    <t>刚果共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97</t>
@@ -2717,7 +2714,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94</t>
   </si>
   <si>
-    <t>安地卡及巴布達</t>
+    <t>安地卡及巴布达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%85%8B</t>
@@ -2729,7 +2726,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%91%9E%E9%82%A3%E9%81%94</t>
   </si>
   <si>
-    <t>格瑞那達</t>
+    <t>格瑞那达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%A1%9E%E6%8B%89%E7%89%B9</t>
@@ -2741,7 +2738,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
@@ -2753,7 +2750,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%96%87%E6%A3%AE%E5%8F%8A%E6%A0%BC%E7%91%9E%E9%82%A3%E4%B8%81</t>
   </si>
   <si>
-    <t>聖文森及格瑞那丁</t>
+    <t>圣文森及格瑞那丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E9%93%81%E8%B7%AF%E8%81%94%E7%9B%9F</t>
@@ -2771,7 +2768,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%89%B9%E8%BF%AA%E7%93%A6</t>
@@ -2789,7 +2786,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬里共和國</t>
+    <t>马里共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%B0%94</t>
@@ -2813,19 +2810,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>法屬玻里尼西亞</t>
+    <t>法属玻里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>新喀里多尼亞</t>
+    <t>新喀里多尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%88%A9%E6%96%AF%E5%92%8C%E5%AF%8C%E5%9C%96%E7%B4%8D</t>
   </si>
   <si>
-    <t>瓦利斯和富圖納</t>
+    <t>瓦利斯和富图纳</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/SUCRE</t>
@@ -2837,25 +2834,22 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E9%96%8B%E7%99%BC%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>非洲開發銀行</t>
+    <t>非洲开发银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E5%BC%80%E5%8F%91%E9%93%B6%E8%A1%8C</t>
   </si>
   <si>
-    <t>非洲开发银行</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80%E9%87%8C%E4%BA%9E%E7%88%BE</t>
   </si>
   <si>
-    <t>葉門里亞爾</t>
+    <t>叶门里亚尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80</t>
   </si>
   <si>
-    <t>葉門</t>
+    <t>叶门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E5%85%B0%E7%89%B9</t>
@@ -2873,13 +2867,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%AF%94%E4%BA%9E%E5%85%8B%E7%93%A6%E6%9F%A5</t>
   </si>
   <si>
-    <t>尚比亞克瓦查</t>
+    <t>尚比亚克瓦查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>尚比亞</t>
+    <t>尚比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E6%89%BF%E8%AE%A4%E5%9B%BD%E5%AE%B6%E5%88%97%E8%A1%A8</t>
@@ -2897,13 +2891,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E5%85%8B%E7%BE%A4%E5%B3%B6%E5%85%83</t>
   </si>
   <si>
-    <t>庫克群島元</t>
+    <t>库克群岛元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BE%85%E7%BE%A4%E5%B3%B6%E5%85%8B%E6%9C%97</t>
   </si>
   <si>
-    <t>法羅群島克朗</t>
+    <t>法罗群岛克朗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%87%8C%E5%B7%B4%E6%96%AF%E5%85%83</t>
@@ -2939,9 +2933,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%87%BA%E5%B9%A3</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B9%BE</t>
   </si>
   <si>
@@ -2963,7 +2954,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
+    <t>中国大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A9%AC%E9%87%8C%E5%85%B0</t>
@@ -2987,13 +2978,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%B5%AB%E7%AC%AC%E7%B4%8D%E7%88%BE</t>
   </si>
   <si>
-    <t>波赫第納爾</t>
+    <t>波赫第纳尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82%E6%B3%95%E9%83%8E</t>
   </si>
   <si>
-    <t>比利時法郎</t>
+    <t>比利时法郎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF%E9%95%91</t>
@@ -3011,7 +3002,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%B2%99%E5%B0%BC%E4%BA%9E%E5%85%8B%E6%9C%97</t>
   </si>
   <si>
-    <t>愛沙尼亞克朗</t>
+    <t>爱沙尼亚克朗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E6%AF%94%E5%A1%9E%E5%A1%94</t>
@@ -3041,7 +3032,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E9%8E%8A</t>
   </si>
   <si>
-    <t>愛爾蘭鎊</t>
+    <t>爱尔兰镑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E9%87%8C%E6%8B%89</t>
@@ -3059,19 +3050,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E6%B3%95%E9%83%8E</t>
   </si>
   <si>
-    <t>盧森堡法郎</t>
+    <t>卢森堡法郎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E%E6%8B%89%E7%89%B9</t>
   </si>
   <si>
-    <t>拉脫維亞拉特</t>
+    <t>拉脱维亚拉特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%B4%8D%E5%93%A5%E6%B3%95%E9%83%8E</t>
   </si>
   <si>
-    <t>摩納哥法郎</t>
+    <t>摩纳哥法郎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%80%B3%E4%BB%96%E9%87%8C%E6%8B%89</t>
@@ -3095,7 +3086,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E%E6%89%98%E6%8B%89%E7%88%BE</t>
   </si>
   <si>
-    <t>斯洛維尼亞托拉爾</t>
+    <t>斯洛维尼亚托拉尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E5%85%8B%E6%9C%97</t>
@@ -3107,13 +3098,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%88%A9%E8%AB%BE%E9%87%8C%E6%8B%89</t>
   </si>
   <si>
-    <t>聖馬利諾里拉</t>
+    <t>圣马利诺里拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7%E5%A5%A7%E6%96%AF%E7%89%B9%E6%8B%89%E7%88%BE</t>
   </si>
   <si>
-    <t>阿根廷奧斯特拉爾</t>
+    <t>阿根廷奥斯特拉尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E5%85%8B%E6%9C%97</t>
@@ -3125,19 +3116,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%BE%B7%E9%A6%AC%E5%85%8B</t>
   </si>
   <si>
-    <t>東德馬克</t>
+    <t>东德马克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E8%98%87%E5%85%8B%E9%9B%B7</t>
   </si>
   <si>
-    <t>厄瓜多蘇克雷</t>
+    <t>厄瓜多苏克雷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E8%A5%BF%E9%87%8C</t>
   </si>
   <si>
-    <t>幾內亞西里</t>
+    <t>几内亚西里</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A%E7%AC%AC%E7%BA%B3%E5%B0%94</t>
@@ -3149,7 +3140,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF%E5%8D%B0%E5%9C%B0</t>
   </si>
   <si>
-    <t>秘魯印地</t>
+    <t>秘鲁印地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%8D%A2%E5%B8%83</t>
@@ -3173,13 +3164,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD%E5%BA%AB%E9%82%A6</t>
   </si>
   <si>
-    <t>烏克蘭庫邦</t>
+    <t>乌克兰库邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%91%89%E9%96%80%E7%AC%AC%E7%B4%8D%E7%88%BE</t>
   </si>
   <si>
-    <t>南葉門第納爾</t>
+    <t>南叶门第纳尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB%E7%AC%AC%E7%BA%B3%E5%B0%94</t>
@@ -3191,19 +3182,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E4%BC%8A_(%E8%B2%A8%E5%B9%A3)</t>
   </si>
   <si>
-    <t>薩伊 (貨幣)</t>
+    <t>萨伊 (货币)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%A5%E5%B7%B4%E5%B8%83%E9%9F%8B%E5%85%83</t>
   </si>
   <si>
-    <t>津巴布韋元</t>
+    <t>津巴布韦元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E9%80%9A%E8%B2%A8%E5%B9%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>流通貨幣列表</t>
+    <t>流通货币列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_9362</t>
@@ -3227,9 +3218,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%8C%96%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際標準化組織</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/List_of_International_Organization_for_Standardization_standards</t>
   </si>
   <si>
@@ -3689,7 +3677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E6%9C%9F%E5%88%8A%E8%99%9F</t>
   </si>
   <si>
-    <t>國際標準期刊號</t>
+    <t>国际标准期刊号</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/ISO_3307</t>
@@ -3773,7 +3761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%AD%89%E5%88%B8%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際證券識別碼</t>
+    <t>国际证券识别码</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/ISO_6344</t>
@@ -3839,7 +3827,7 @@
     <t>https://zh.wikipedia.org/wiki/Pascal_(%E7%A8%8B%E5%BC%8F%E8%AA%9E%E8%A8%80)</t>
   </si>
   <si>
-    <t>Pascal (程式語言)</t>
+    <t>Pascal (程式语言)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/ISO_7200</t>
@@ -4073,7 +4061,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9E%8B%E7%A2%BC</t>
   </si>
   <si>
-    <t>鞋碼</t>
+    <t>鞋码</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Manufacturing_Message_Specification</t>
@@ -4253,7 +4241,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E%E8%B3%87%E8%A8%8A%E4%BA%A4%E6%8F%9B%E6%A8%99%E6%BA%96%E4%BB%A3%E7%A2%BC</t>
   </si>
   <si>
-    <t>亞美尼亞資訊交換標準代碼</t>
+    <t>亚美尼亚资讯交换标准代码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%97%B4%E7%B3%BB%E7%BB%9F%E5%88%B0%E4%B8%AD%E9%97%B4%E7%B3%BB%E7%BB%9F</t>
@@ -4271,7 +4259,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%8A%B1%E8%9E%BA%E7%B5%B2</t>
   </si>
   <si>
-    <t>梅花螺絲</t>
+    <t>梅花螺丝</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/RM-ODP</t>
@@ -4355,7 +4343,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A7%E5%88%B6%E5%99%A8%E5%8D%80%E5%9F%9F%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>控制器區域網路</t>
+    <t>控制器区域网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_11940</t>
@@ -4505,7 +4493,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%8A%9B</t>
   </si>
   <si>
-    <t>馬力</t>
+    <t>马力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO/IEC_14443</t>
@@ -4583,7 +4571,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94%E7%B6%AD%E8%AD%B7</t>
   </si>
   <si>
-    <t>軟體維護</t>
+    <t>软体维护</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/C%2B%2B</t>
@@ -4823,7 +4811,7 @@
     <t>https://zh.wikipedia.org/wiki/QR%E7%A2%BC</t>
   </si>
   <si>
-    <t>QR碼</t>
+    <t>QR码</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/ISO/IEC_18014</t>
@@ -5069,7 +5057,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%9E%E5%BD%99%E6%A8%99%E7%A4%BA%E6%A1%86%E6%9E%B6</t>
   </si>
   <si>
-    <t>詞彙標示框架</t>
+    <t>词汇标示框架</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/ISO-TimeML</t>
@@ -5147,7 +5135,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/ISO/PAS_28000</t>
@@ -17475,7 +17463,7 @@
         <v>815</v>
       </c>
       <c r="F410" t="s">
-        <v>816</v>
+        <v>32</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -17501,10 +17489,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
+        <v>816</v>
+      </c>
+      <c r="F411" t="s">
         <v>817</v>
-      </c>
-      <c r="F411" t="s">
-        <v>818</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -17530,10 +17518,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
+        <v>818</v>
+      </c>
+      <c r="F412" t="s">
         <v>819</v>
-      </c>
-      <c r="F412" t="s">
-        <v>820</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -17559,10 +17547,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
+        <v>820</v>
+      </c>
+      <c r="F413" t="s">
         <v>821</v>
-      </c>
-      <c r="F413" t="s">
-        <v>822</v>
       </c>
       <c r="G413" t="n">
         <v>2</v>
@@ -17588,10 +17576,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
+        <v>822</v>
+      </c>
+      <c r="F414" t="s">
         <v>823</v>
-      </c>
-      <c r="F414" t="s">
-        <v>824</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -17617,10 +17605,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
+        <v>824</v>
+      </c>
+      <c r="F415" t="s">
         <v>825</v>
-      </c>
-      <c r="F415" t="s">
-        <v>826</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -17646,10 +17634,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
+        <v>826</v>
+      </c>
+      <c r="F416" t="s">
         <v>827</v>
-      </c>
-      <c r="F416" t="s">
-        <v>828</v>
       </c>
       <c r="G416" t="n">
         <v>2</v>
@@ -17675,10 +17663,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
+        <v>828</v>
+      </c>
+      <c r="F417" t="s">
         <v>829</v>
-      </c>
-      <c r="F417" t="s">
-        <v>830</v>
       </c>
       <c r="G417" t="n">
         <v>3</v>
@@ -17704,10 +17692,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
+        <v>830</v>
+      </c>
+      <c r="F418" t="s">
         <v>831</v>
-      </c>
-      <c r="F418" t="s">
-        <v>832</v>
       </c>
       <c r="G418" t="n">
         <v>3</v>
@@ -17733,10 +17721,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
+        <v>832</v>
+      </c>
+      <c r="F419" t="s">
         <v>833</v>
-      </c>
-      <c r="F419" t="s">
-        <v>834</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -17762,10 +17750,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
+        <v>834</v>
+      </c>
+      <c r="F420" t="s">
         <v>835</v>
-      </c>
-      <c r="F420" t="s">
-        <v>836</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -17791,10 +17779,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
+        <v>836</v>
+      </c>
+      <c r="F421" t="s">
         <v>837</v>
-      </c>
-      <c r="F421" t="s">
-        <v>838</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -17820,10 +17808,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
+        <v>838</v>
+      </c>
+      <c r="F422" t="s">
         <v>839</v>
-      </c>
-      <c r="F422" t="s">
-        <v>840</v>
       </c>
       <c r="G422" t="n">
         <v>3</v>
@@ -17849,10 +17837,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
+        <v>840</v>
+      </c>
+      <c r="F423" t="s">
         <v>841</v>
-      </c>
-      <c r="F423" t="s">
-        <v>842</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -17878,10 +17866,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
+        <v>842</v>
+      </c>
+      <c r="F424" t="s">
         <v>843</v>
-      </c>
-      <c r="F424" t="s">
-        <v>844</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -17907,10 +17895,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
+        <v>844</v>
+      </c>
+      <c r="F425" t="s">
         <v>845</v>
-      </c>
-      <c r="F425" t="s">
-        <v>846</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -17936,10 +17924,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
+        <v>846</v>
+      </c>
+      <c r="F426" t="s">
         <v>847</v>
-      </c>
-      <c r="F426" t="s">
-        <v>848</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -17965,10 +17953,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
+        <v>848</v>
+      </c>
+      <c r="F427" t="s">
         <v>849</v>
-      </c>
-      <c r="F427" t="s">
-        <v>850</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -17994,10 +17982,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
+        <v>850</v>
+      </c>
+      <c r="F428" t="s">
         <v>851</v>
-      </c>
-      <c r="F428" t="s">
-        <v>852</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -18023,10 +18011,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
+        <v>852</v>
+      </c>
+      <c r="F429" t="s">
         <v>853</v>
-      </c>
-      <c r="F429" t="s">
-        <v>854</v>
       </c>
       <c r="G429" t="n">
         <v>2</v>
@@ -18052,10 +18040,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
+        <v>854</v>
+      </c>
+      <c r="F430" t="s">
         <v>855</v>
-      </c>
-      <c r="F430" t="s">
-        <v>856</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -18081,10 +18069,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
+        <v>856</v>
+      </c>
+      <c r="F431" t="s">
         <v>857</v>
-      </c>
-      <c r="F431" t="s">
-        <v>858</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -18110,10 +18098,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
+        <v>858</v>
+      </c>
+      <c r="F432" t="s">
         <v>859</v>
-      </c>
-      <c r="F432" t="s">
-        <v>860</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -18139,10 +18127,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
+        <v>860</v>
+      </c>
+      <c r="F433" t="s">
         <v>861</v>
-      </c>
-      <c r="F433" t="s">
-        <v>862</v>
       </c>
       <c r="G433" t="n">
         <v>5</v>
@@ -18168,10 +18156,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
+        <v>862</v>
+      </c>
+      <c r="F434" t="s">
         <v>863</v>
-      </c>
-      <c r="F434" t="s">
-        <v>864</v>
       </c>
       <c r="G434" t="n">
         <v>2</v>
@@ -18197,10 +18185,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
+        <v>864</v>
+      </c>
+      <c r="F435" t="s">
         <v>865</v>
-      </c>
-      <c r="F435" t="s">
-        <v>866</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -18226,10 +18214,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
+        <v>866</v>
+      </c>
+      <c r="F436" t="s">
         <v>867</v>
-      </c>
-      <c r="F436" t="s">
-        <v>868</v>
       </c>
       <c r="G436" t="n">
         <v>2</v>
@@ -18255,10 +18243,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
+        <v>868</v>
+      </c>
+      <c r="F437" t="s">
         <v>869</v>
-      </c>
-      <c r="F437" t="s">
-        <v>870</v>
       </c>
       <c r="G437" t="n">
         <v>2</v>
@@ -18284,10 +18272,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
+        <v>870</v>
+      </c>
+      <c r="F438" t="s">
         <v>871</v>
-      </c>
-      <c r="F438" t="s">
-        <v>872</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -18313,10 +18301,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
+        <v>872</v>
+      </c>
+      <c r="F439" t="s">
         <v>873</v>
-      </c>
-      <c r="F439" t="s">
-        <v>874</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -18342,10 +18330,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
+        <v>874</v>
+      </c>
+      <c r="F440" t="s">
         <v>875</v>
-      </c>
-      <c r="F440" t="s">
-        <v>876</v>
       </c>
       <c r="G440" t="n">
         <v>2</v>
@@ -18371,10 +18359,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
+        <v>876</v>
+      </c>
+      <c r="F441" t="s">
         <v>877</v>
-      </c>
-      <c r="F441" t="s">
-        <v>878</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -18400,10 +18388,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
+        <v>878</v>
+      </c>
+      <c r="F442" t="s">
         <v>879</v>
-      </c>
-      <c r="F442" t="s">
-        <v>880</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -18429,10 +18417,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
+        <v>880</v>
+      </c>
+      <c r="F443" t="s">
         <v>881</v>
-      </c>
-      <c r="F443" t="s">
-        <v>882</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -18458,10 +18446,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
+        <v>882</v>
+      </c>
+      <c r="F444" t="s">
         <v>883</v>
-      </c>
-      <c r="F444" t="s">
-        <v>884</v>
       </c>
       <c r="G444" t="n">
         <v>3</v>
@@ -18487,10 +18475,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
+        <v>884</v>
+      </c>
+      <c r="F445" t="s">
         <v>885</v>
-      </c>
-      <c r="F445" t="s">
-        <v>886</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -18516,10 +18504,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
+        <v>886</v>
+      </c>
+      <c r="F446" t="s">
         <v>887</v>
-      </c>
-      <c r="F446" t="s">
-        <v>888</v>
       </c>
       <c r="G446" t="n">
         <v>3</v>
@@ -18545,10 +18533,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
+        <v>888</v>
+      </c>
+      <c r="F447" t="s">
         <v>889</v>
-      </c>
-      <c r="F447" t="s">
-        <v>890</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -18574,10 +18562,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
+        <v>890</v>
+      </c>
+      <c r="F448" t="s">
         <v>891</v>
-      </c>
-      <c r="F448" t="s">
-        <v>892</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -18603,10 +18591,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
+        <v>892</v>
+      </c>
+      <c r="F449" t="s">
         <v>893</v>
-      </c>
-      <c r="F449" t="s">
-        <v>894</v>
       </c>
       <c r="G449" t="n">
         <v>2</v>
@@ -18632,10 +18620,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
+        <v>894</v>
+      </c>
+      <c r="F450" t="s">
         <v>895</v>
-      </c>
-      <c r="F450" t="s">
-        <v>896</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -18661,10 +18649,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
+        <v>896</v>
+      </c>
+      <c r="F451" t="s">
         <v>897</v>
-      </c>
-      <c r="F451" t="s">
-        <v>898</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -18690,10 +18678,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
+        <v>898</v>
+      </c>
+      <c r="F452" t="s">
         <v>899</v>
-      </c>
-      <c r="F452" t="s">
-        <v>900</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -18719,10 +18707,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
+        <v>900</v>
+      </c>
+      <c r="F453" t="s">
         <v>901</v>
-      </c>
-      <c r="F453" t="s">
-        <v>902</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -18748,10 +18736,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
+        <v>902</v>
+      </c>
+      <c r="F454" t="s">
         <v>903</v>
-      </c>
-      <c r="F454" t="s">
-        <v>904</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -18777,10 +18765,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
+        <v>904</v>
+      </c>
+      <c r="F455" t="s">
         <v>905</v>
-      </c>
-      <c r="F455" t="s">
-        <v>906</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -18806,10 +18794,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
+        <v>906</v>
+      </c>
+      <c r="F456" t="s">
         <v>907</v>
-      </c>
-      <c r="F456" t="s">
-        <v>908</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -18835,10 +18823,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
+        <v>908</v>
+      </c>
+      <c r="F457" t="s">
         <v>909</v>
-      </c>
-      <c r="F457" t="s">
-        <v>910</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -18864,10 +18852,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
+        <v>910</v>
+      </c>
+      <c r="F458" t="s">
         <v>911</v>
-      </c>
-      <c r="F458" t="s">
-        <v>912</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -18893,10 +18881,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
+        <v>912</v>
+      </c>
+      <c r="F459" t="s">
         <v>913</v>
-      </c>
-      <c r="F459" t="s">
-        <v>914</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -18922,10 +18910,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
+        <v>914</v>
+      </c>
+      <c r="F460" t="s">
         <v>915</v>
-      </c>
-      <c r="F460" t="s">
-        <v>916</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -18951,10 +18939,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
+        <v>916</v>
+      </c>
+      <c r="F461" t="s">
         <v>917</v>
-      </c>
-      <c r="F461" t="s">
-        <v>918</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -18980,10 +18968,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
+        <v>918</v>
+      </c>
+      <c r="F462" t="s">
         <v>919</v>
-      </c>
-      <c r="F462" t="s">
-        <v>920</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -19009,10 +18997,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
+        <v>920</v>
+      </c>
+      <c r="F463" t="s">
         <v>921</v>
-      </c>
-      <c r="F463" t="s">
-        <v>922</v>
       </c>
       <c r="G463" t="n">
         <v>2</v>
@@ -19038,10 +19026,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
+        <v>922</v>
+      </c>
+      <c r="F464" t="s">
         <v>923</v>
-      </c>
-      <c r="F464" t="s">
-        <v>924</v>
       </c>
       <c r="G464" t="n">
         <v>7</v>
@@ -19067,10 +19055,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
+        <v>924</v>
+      </c>
+      <c r="F465" t="s">
         <v>925</v>
-      </c>
-      <c r="F465" t="s">
-        <v>926</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -19096,10 +19084,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
+        <v>926</v>
+      </c>
+      <c r="F466" t="s">
         <v>927</v>
-      </c>
-      <c r="F466" t="s">
-        <v>928</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -19125,10 +19113,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
+        <v>928</v>
+      </c>
+      <c r="F467" t="s">
         <v>929</v>
-      </c>
-      <c r="F467" t="s">
-        <v>930</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -19154,10 +19142,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
+        <v>930</v>
+      </c>
+      <c r="F468" t="s">
         <v>931</v>
-      </c>
-      <c r="F468" t="s">
-        <v>932</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -19183,10 +19171,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
+        <v>932</v>
+      </c>
+      <c r="F469" t="s">
         <v>933</v>
-      </c>
-      <c r="F469" t="s">
-        <v>934</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -19212,10 +19200,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
+        <v>934</v>
+      </c>
+      <c r="F470" t="s">
         <v>935</v>
-      </c>
-      <c r="F470" t="s">
-        <v>936</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -19241,10 +19229,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
+        <v>936</v>
+      </c>
+      <c r="F471" t="s">
         <v>937</v>
-      </c>
-      <c r="F471" t="s">
-        <v>938</v>
       </c>
       <c r="G471" t="n">
         <v>2</v>
@@ -19270,10 +19258,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
+        <v>938</v>
+      </c>
+      <c r="F472" t="s">
         <v>939</v>
-      </c>
-      <c r="F472" t="s">
-        <v>940</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -19299,10 +19287,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F473" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="G473" t="n">
         <v>2</v>
@@ -19328,10 +19316,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F474" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -19357,10 +19345,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F475" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -19386,10 +19374,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F476" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -19415,10 +19403,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F477" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="G477" t="n">
         <v>3</v>
@@ -19444,10 +19432,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="F478" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="G478" t="n">
         <v>2</v>
@@ -19473,10 +19461,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F479" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -19502,10 +19490,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F480" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -19531,10 +19519,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F481" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="G481" t="n">
         <v>12</v>
@@ -19560,10 +19548,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F482" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -19589,10 +19577,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F483" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -19618,10 +19606,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F484" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G484" t="n">
         <v>2</v>
@@ -19647,10 +19635,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F485" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="G485" t="n">
         <v>2</v>
@@ -19676,10 +19664,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F486" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="G486" t="n">
         <v>2</v>
@@ -19705,10 +19693,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F487" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="G487" t="n">
         <v>5</v>
@@ -19734,10 +19722,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F488" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="G488" t="n">
         <v>2</v>
@@ -19792,10 +19780,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F490" t="s">
-        <v>974</v>
+        <v>32</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -19821,10 +19809,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="F491" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="G491" t="n">
         <v>2</v>
@@ -19850,10 +19838,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="F492" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="G492" t="n">
         <v>4</v>
@@ -19879,10 +19867,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="F493" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="G493" t="n">
         <v>4</v>
@@ -19937,10 +19925,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="F495" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -19966,10 +19954,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="F496" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="G496" t="n">
         <v>3</v>
@@ -19995,10 +19983,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="F497" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="G497" t="n">
         <v>4</v>
@@ -20024,10 +20012,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="F498" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -20053,10 +20041,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="F499" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -20082,10 +20070,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="F500" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -20111,10 +20099,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="F501" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -20140,10 +20128,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="F502" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -20169,10 +20157,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="F503" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -20198,10 +20186,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="F504" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="G504" t="n">
         <v>4</v>
@@ -20227,10 +20215,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="F505" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -20256,10 +20244,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="F506" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="G506" t="n">
         <v>2</v>
@@ -20285,10 +20273,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="F507" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -20314,10 +20302,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="F508" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -20343,10 +20331,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F509" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -20372,10 +20360,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="F510" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -20401,10 +20389,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="F511" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -20430,10 +20418,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="F512" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -20459,10 +20447,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="F513" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -20488,10 +20476,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F514" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -20517,10 +20505,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="F515" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -20546,10 +20534,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="F516" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -20575,10 +20563,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="F517" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -20604,10 +20592,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="F518" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="G518" t="n">
         <v>2</v>
@@ -20633,10 +20621,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="F519" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -20720,10 +20708,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="F522" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -20749,10 +20737,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="F523" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -20778,10 +20766,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="F524" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -20807,10 +20795,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="F525" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -20836,10 +20824,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="F526" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -20865,10 +20853,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="F527" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -20923,10 +20911,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="F529" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -20981,10 +20969,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="F531" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -21010,10 +20998,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="F532" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -21039,10 +21027,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="F533" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -21068,10 +21056,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="F534" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -21097,10 +21085,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
+        <v>862</v>
+      </c>
+      <c r="F535" t="s">
         <v>863</v>
-      </c>
-      <c r="F535" t="s">
-        <v>864</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -21126,10 +21114,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="F536" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -21155,10 +21143,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="F537" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="G537" t="n">
         <v>6</v>
@@ -21184,10 +21172,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="F538" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -21213,10 +21201,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="F539" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -21242,10 +21230,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="F540" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="G540" t="n">
         <v>4</v>
@@ -21271,10 +21259,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="F541" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -21329,10 +21317,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="F543" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -21358,10 +21346,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="F544" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="G544" t="n">
         <v>8</v>
@@ -21387,10 +21375,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="F545" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="G545" t="n">
         <v>4</v>
@@ -21416,10 +21404,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="F546" t="s">
-        <v>1070</v>
+        <v>3</v>
       </c>
       <c r="G546" t="n">
         <v>215</v>
@@ -21445,10 +21433,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="F547" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -21474,10 +21462,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="F548" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -21503,10 +21491,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="F549" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -21532,10 +21520,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="F550" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="G550" t="n">
         <v>1096</v>
@@ -21561,10 +21549,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="F551" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="G551" t="n">
         <v>801</v>
@@ -21590,10 +21578,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="F552" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -21619,10 +21607,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="F553" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="G553" t="n">
         <v>401</v>
@@ -21648,10 +21636,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="F554" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="G554" t="n">
         <v>327</v>
@@ -21677,10 +21665,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="F555" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="G555" t="n">
         <v>330</v>
@@ -21706,10 +21694,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="F556" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="G556" t="n">
         <v>5</v>
@@ -21735,10 +21723,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="F557" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="G557" t="n">
         <v>599</v>
@@ -21764,10 +21752,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="F558" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="G558" t="n">
         <v>37</v>
@@ -21793,10 +21781,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="F559" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="G559" t="n">
         <v>66</v>
@@ -21822,10 +21810,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="F560" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -21851,10 +21839,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="F561" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="G561" t="n">
         <v>5</v>
@@ -21880,10 +21868,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="F562" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -21909,10 +21897,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="F563" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -21938,10 +21926,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="F564" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -21967,10 +21955,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="F565" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -21996,10 +21984,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="F566" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -22025,10 +22013,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="F567" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -22054,10 +22042,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="F568" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -22083,10 +22071,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="F569" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -22112,10 +22100,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="F570" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -22141,10 +22129,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="F571" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -22170,10 +22158,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="F572" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -22199,10 +22187,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="F573" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -22228,10 +22216,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="F574" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="G574" t="n">
         <v>2</v>
@@ -22257,10 +22245,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="F575" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="G575" t="n">
         <v>2</v>
@@ -22286,10 +22274,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="F576" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -22315,10 +22303,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="F577" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -22344,10 +22332,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="F578" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -22373,10 +22361,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="F579" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="G579" t="n">
         <v>3</v>
@@ -22402,10 +22390,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="F580" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="G580" t="n">
         <v>3</v>
@@ -22431,10 +22419,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="F581" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="G581" t="n">
         <v>1</v>
@@ -22460,10 +22448,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="F582" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -22489,10 +22477,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="F583" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -22518,10 +22506,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="F584" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="G584" t="n">
         <v>1</v>
@@ -22547,10 +22535,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="F585" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="G585" t="n">
         <v>3</v>
@@ -22576,10 +22564,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="F586" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -22605,10 +22593,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="F587" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -22634,10 +22622,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="F588" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="G588" t="n">
         <v>103</v>
@@ -22663,10 +22651,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="F589" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="G589" t="n">
         <v>41</v>
@@ -22692,10 +22680,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="F590" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="G590" t="n">
         <v>55</v>
@@ -22721,10 +22709,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="F591" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="G591" t="n">
         <v>9</v>
@@ -22750,10 +22738,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="F592" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="G592" t="n">
         <v>6</v>
@@ -22779,10 +22767,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="F593" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="G593" t="n">
         <v>3</v>
@@ -22808,10 +22796,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="F594" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="G594" t="n">
         <v>2</v>
@@ -22837,10 +22825,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="F595" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="G595" t="n">
         <v>1</v>
@@ -22866,10 +22854,10 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="F596" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="G596" t="n">
         <v>1</v>
@@ -22895,10 +22883,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="F597" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="G597" t="n">
         <v>1</v>
@@ -22924,10 +22912,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="F598" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="G598" t="n">
         <v>1</v>
@@ -22953,10 +22941,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="F599" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="G599" t="n">
         <v>1</v>
@@ -22982,10 +22970,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="F600" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="G600" t="n">
         <v>14</v>
@@ -23011,10 +22999,10 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="F601" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="G601" t="n">
         <v>1</v>
@@ -23040,10 +23028,10 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="F602" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="G602" t="n">
         <v>1</v>
@@ -23069,10 +23057,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="F603" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="G603" t="n">
         <v>1</v>
@@ -23098,10 +23086,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="F604" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="G604" t="n">
         <v>1</v>
@@ -23127,10 +23115,10 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="F605" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="G605" t="n">
         <v>1</v>
@@ -23156,10 +23144,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="F606" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="G606" t="n">
         <v>1</v>
@@ -23185,10 +23173,10 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="F607" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="G607" t="n">
         <v>4</v>
@@ -23214,10 +23202,10 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="F608" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="G608" t="n">
         <v>1</v>
@@ -23243,10 +23231,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="F609" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="G609" t="n">
         <v>1</v>
@@ -23272,10 +23260,10 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="F610" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="G610" t="n">
         <v>1</v>
@@ -23301,10 +23289,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="F611" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="G611" t="n">
         <v>1</v>
@@ -23330,10 +23318,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="F612" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="G612" t="n">
         <v>1</v>
@@ -23359,10 +23347,10 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="F613" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="G613" t="n">
         <v>1</v>
@@ -23388,10 +23376,10 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="F614" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="G614" t="n">
         <v>1</v>
@@ -23417,10 +23405,10 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="F615" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="G615" t="n">
         <v>1</v>
@@ -23446,10 +23434,10 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="F616" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="G616" t="n">
         <v>2</v>
@@ -23475,10 +23463,10 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="F617" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="G617" t="n">
         <v>1</v>
@@ -23504,10 +23492,10 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="F618" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="G618" t="n">
         <v>1</v>
@@ -23533,10 +23521,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="F619" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="G619" t="n">
         <v>1</v>
@@ -23562,10 +23550,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="F620" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="G620" t="n">
         <v>1</v>
@@ -23591,10 +23579,10 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="F621" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="G621" t="n">
         <v>1</v>
@@ -23620,10 +23608,10 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="F622" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="G622" t="n">
         <v>1</v>
@@ -23649,10 +23637,10 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="F623" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="G623" t="n">
         <v>6</v>
@@ -23678,10 +23666,10 @@
         <v>623</v>
       </c>
       <c r="E624" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="F624" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="G624" t="n">
         <v>1</v>
@@ -23707,10 +23695,10 @@
         <v>624</v>
       </c>
       <c r="E625" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="F625" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="G625" t="n">
         <v>1</v>
@@ -23736,10 +23724,10 @@
         <v>625</v>
       </c>
       <c r="E626" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="F626" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="G626" t="n">
         <v>1</v>
@@ -23765,10 +23753,10 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="F627" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="G627" t="n">
         <v>1</v>
@@ -23794,10 +23782,10 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="F628" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="G628" t="n">
         <v>1</v>
@@ -23823,10 +23811,10 @@
         <v>628</v>
       </c>
       <c r="E629" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="F629" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="G629" t="n">
         <v>1</v>
@@ -23852,10 +23840,10 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="F630" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="G630" t="n">
         <v>1</v>
@@ -23881,10 +23869,10 @@
         <v>630</v>
       </c>
       <c r="E631" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="F631" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="G631" t="n">
         <v>1</v>
@@ -23910,10 +23898,10 @@
         <v>631</v>
       </c>
       <c r="E632" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="F632" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="G632" t="n">
         <v>1</v>
@@ -23939,10 +23927,10 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="F633" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="G633" t="n">
         <v>1</v>
@@ -23968,10 +23956,10 @@
         <v>633</v>
       </c>
       <c r="E634" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="F634" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="G634" t="n">
         <v>1</v>
@@ -23997,10 +23985,10 @@
         <v>634</v>
       </c>
       <c r="E635" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="F635" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="G635" t="n">
         <v>1</v>
@@ -24026,10 +24014,10 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="F636" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="G636" t="n">
         <v>1</v>
@@ -24055,10 +24043,10 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="F637" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="G637" t="n">
         <v>1</v>
@@ -24084,10 +24072,10 @@
         <v>637</v>
       </c>
       <c r="E638" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="F638" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="G638" t="n">
         <v>1</v>
@@ -24113,10 +24101,10 @@
         <v>638</v>
       </c>
       <c r="E639" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="F639" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="G639" t="n">
         <v>1</v>
@@ -24142,10 +24130,10 @@
         <v>639</v>
       </c>
       <c r="E640" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="F640" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="G640" t="n">
         <v>1</v>
@@ -24171,10 +24159,10 @@
         <v>640</v>
       </c>
       <c r="E641" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="F641" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="G641" t="n">
         <v>1</v>
@@ -24200,10 +24188,10 @@
         <v>641</v>
       </c>
       <c r="E642" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="F642" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="G642" t="n">
         <v>1</v>
@@ -24229,10 +24217,10 @@
         <v>642</v>
       </c>
       <c r="E643" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="F643" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="G643" t="n">
         <v>1</v>
@@ -24258,10 +24246,10 @@
         <v>643</v>
       </c>
       <c r="E644" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="F644" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="G644" t="n">
         <v>1</v>
@@ -24287,10 +24275,10 @@
         <v>644</v>
       </c>
       <c r="E645" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="F645" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="G645" t="n">
         <v>1</v>
@@ -24316,10 +24304,10 @@
         <v>645</v>
       </c>
       <c r="E646" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="F646" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="G646" t="n">
         <v>1</v>
@@ -24345,10 +24333,10 @@
         <v>646</v>
       </c>
       <c r="E647" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="F647" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="G647" t="n">
         <v>1</v>
@@ -24374,10 +24362,10 @@
         <v>647</v>
       </c>
       <c r="E648" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F648" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="G648" t="n">
         <v>1</v>
@@ -24403,10 +24391,10 @@
         <v>648</v>
       </c>
       <c r="E649" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="F649" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="G649" t="n">
         <v>1</v>
@@ -24432,10 +24420,10 @@
         <v>649</v>
       </c>
       <c r="E650" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="F650" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="G650" t="n">
         <v>1</v>
@@ -24461,10 +24449,10 @@
         <v>650</v>
       </c>
       <c r="E651" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="F651" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="G651" t="n">
         <v>1</v>
@@ -24490,10 +24478,10 @@
         <v>651</v>
       </c>
       <c r="E652" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="F652" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="G652" t="n">
         <v>1</v>
@@ -24519,10 +24507,10 @@
         <v>652</v>
       </c>
       <c r="E653" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="F653" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="G653" t="n">
         <v>1</v>
@@ -24548,10 +24536,10 @@
         <v>653</v>
       </c>
       <c r="E654" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="F654" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="G654" t="n">
         <v>1</v>
@@ -24577,10 +24565,10 @@
         <v>654</v>
       </c>
       <c r="E655" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="F655" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="G655" t="n">
         <v>1</v>
@@ -24606,10 +24594,10 @@
         <v>655</v>
       </c>
       <c r="E656" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="F656" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="G656" t="n">
         <v>1</v>
@@ -24635,10 +24623,10 @@
         <v>656</v>
       </c>
       <c r="E657" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="F657" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="G657" t="n">
         <v>1</v>
@@ -24664,10 +24652,10 @@
         <v>657</v>
       </c>
       <c r="E658" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="F658" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="G658" t="n">
         <v>1</v>
@@ -24693,10 +24681,10 @@
         <v>658</v>
       </c>
       <c r="E659" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="F659" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="G659" t="n">
         <v>4</v>
@@ -24722,10 +24710,10 @@
         <v>659</v>
       </c>
       <c r="E660" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="F660" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="G660" t="n">
         <v>1</v>
@@ -24751,10 +24739,10 @@
         <v>660</v>
       </c>
       <c r="E661" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="F661" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="G661" t="n">
         <v>1</v>
@@ -24780,10 +24768,10 @@
         <v>661</v>
       </c>
       <c r="E662" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="F662" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="G662" t="n">
         <v>1</v>
@@ -24809,10 +24797,10 @@
         <v>662</v>
       </c>
       <c r="E663" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="F663" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="G663" t="n">
         <v>1</v>
@@ -24838,10 +24826,10 @@
         <v>663</v>
       </c>
       <c r="E664" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="F664" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="G664" t="n">
         <v>1</v>
@@ -24867,10 +24855,10 @@
         <v>664</v>
       </c>
       <c r="E665" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="F665" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="G665" t="n">
         <v>1</v>
@@ -24896,10 +24884,10 @@
         <v>665</v>
       </c>
       <c r="E666" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="F666" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="G666" t="n">
         <v>1</v>
@@ -24925,10 +24913,10 @@
         <v>666</v>
       </c>
       <c r="E667" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="F667" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="G667" t="n">
         <v>1</v>
@@ -24954,10 +24942,10 @@
         <v>667</v>
       </c>
       <c r="E668" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="F668" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="G668" t="n">
         <v>1</v>
@@ -24983,10 +24971,10 @@
         <v>668</v>
       </c>
       <c r="E669" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="F669" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="G669" t="n">
         <v>1</v>
@@ -25012,10 +25000,10 @@
         <v>669</v>
       </c>
       <c r="E670" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="F670" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="G670" t="n">
         <v>2</v>
@@ -25041,10 +25029,10 @@
         <v>670</v>
       </c>
       <c r="E671" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="F671" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="G671" t="n">
         <v>10</v>
@@ -25070,10 +25058,10 @@
         <v>671</v>
       </c>
       <c r="E672" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="F672" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="G672" t="n">
         <v>3</v>
@@ -25099,10 +25087,10 @@
         <v>672</v>
       </c>
       <c r="E673" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="F673" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="G673" t="n">
         <v>6</v>
@@ -25128,10 +25116,10 @@
         <v>673</v>
       </c>
       <c r="E674" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="F674" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="G674" t="n">
         <v>1</v>
@@ -25157,10 +25145,10 @@
         <v>674</v>
       </c>
       <c r="E675" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="F675" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="G675" t="n">
         <v>6</v>
@@ -25186,10 +25174,10 @@
         <v>675</v>
       </c>
       <c r="E676" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="F676" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="G676" t="n">
         <v>13</v>
@@ -25215,10 +25203,10 @@
         <v>676</v>
       </c>
       <c r="E677" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="F677" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="G677" t="n">
         <v>9</v>
@@ -25244,10 +25232,10 @@
         <v>677</v>
       </c>
       <c r="E678" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="F678" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="G678" t="n">
         <v>40</v>
@@ -25273,10 +25261,10 @@
         <v>678</v>
       </c>
       <c r="E679" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="F679" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="G679" t="n">
         <v>5</v>
@@ -25302,10 +25290,10 @@
         <v>679</v>
       </c>
       <c r="E680" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="F680" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="G680" t="n">
         <v>3</v>
@@ -25331,10 +25319,10 @@
         <v>680</v>
       </c>
       <c r="E681" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="F681" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="G681" t="n">
         <v>6</v>
@@ -25360,10 +25348,10 @@
         <v>681</v>
       </c>
       <c r="E682" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="F682" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="G682" t="n">
         <v>2</v>
@@ -25389,10 +25377,10 @@
         <v>682</v>
       </c>
       <c r="E683" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="F683" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="G683" t="n">
         <v>1</v>
@@ -25418,10 +25406,10 @@
         <v>683</v>
       </c>
       <c r="E684" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="F684" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="G684" t="n">
         <v>1</v>
@@ -25447,10 +25435,10 @@
         <v>684</v>
       </c>
       <c r="E685" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="F685" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="G685" t="n">
         <v>1</v>
@@ -25476,10 +25464,10 @@
         <v>685</v>
       </c>
       <c r="E686" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="F686" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="G686" t="n">
         <v>1</v>
@@ -25505,10 +25493,10 @@
         <v>686</v>
       </c>
       <c r="E687" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="F687" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="G687" t="n">
         <v>1</v>
@@ -25534,10 +25522,10 @@
         <v>687</v>
       </c>
       <c r="E688" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="F688" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="G688" t="n">
         <v>1</v>
@@ -25563,10 +25551,10 @@
         <v>688</v>
       </c>
       <c r="E689" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="F689" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="G689" t="n">
         <v>1</v>
@@ -25592,10 +25580,10 @@
         <v>689</v>
       </c>
       <c r="E690" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="F690" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="G690" t="n">
         <v>1</v>
@@ -25621,10 +25609,10 @@
         <v>690</v>
       </c>
       <c r="E691" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="F691" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="G691" t="n">
         <v>1</v>
@@ -25650,10 +25638,10 @@
         <v>691</v>
       </c>
       <c r="E692" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="F692" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="G692" t="n">
         <v>1</v>
@@ -25679,10 +25667,10 @@
         <v>692</v>
       </c>
       <c r="E693" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="F693" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="G693" t="n">
         <v>1</v>
@@ -25708,10 +25696,10 @@
         <v>693</v>
       </c>
       <c r="E694" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="F694" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="G694" t="n">
         <v>1</v>
@@ -25737,10 +25725,10 @@
         <v>694</v>
       </c>
       <c r="E695" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="F695" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="G695" t="n">
         <v>1</v>
@@ -25766,10 +25754,10 @@
         <v>695</v>
       </c>
       <c r="E696" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="F696" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="G696" t="n">
         <v>1</v>
@@ -25795,10 +25783,10 @@
         <v>696</v>
       </c>
       <c r="E697" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="F697" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="G697" t="n">
         <v>1</v>
@@ -25824,10 +25812,10 @@
         <v>697</v>
       </c>
       <c r="E698" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="F698" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="G698" t="n">
         <v>1</v>
@@ -25853,10 +25841,10 @@
         <v>698</v>
       </c>
       <c r="E699" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="F699" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="G699" t="n">
         <v>1</v>
@@ -25882,10 +25870,10 @@
         <v>699</v>
       </c>
       <c r="E700" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="F700" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="G700" t="n">
         <v>1</v>
@@ -25911,10 +25899,10 @@
         <v>700</v>
       </c>
       <c r="E701" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="F701" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="G701" t="n">
         <v>1</v>
@@ -25940,10 +25928,10 @@
         <v>701</v>
       </c>
       <c r="E702" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="F702" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="G702" t="n">
         <v>1</v>
@@ -25969,10 +25957,10 @@
         <v>702</v>
       </c>
       <c r="E703" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="F703" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="G703" t="n">
         <v>1</v>
@@ -25998,10 +25986,10 @@
         <v>703</v>
       </c>
       <c r="E704" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="F704" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="G704" t="n">
         <v>1</v>
@@ -26027,10 +26015,10 @@
         <v>704</v>
       </c>
       <c r="E705" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="F705" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="G705" t="n">
         <v>1</v>
@@ -26056,10 +26044,10 @@
         <v>705</v>
       </c>
       <c r="E706" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="F706" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="G706" t="n">
         <v>1</v>
@@ -26085,10 +26073,10 @@
         <v>706</v>
       </c>
       <c r="E707" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="F707" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="G707" t="n">
         <v>1</v>
@@ -26114,10 +26102,10 @@
         <v>707</v>
       </c>
       <c r="E708" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="F708" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="G708" t="n">
         <v>1</v>
@@ -26143,10 +26131,10 @@
         <v>708</v>
       </c>
       <c r="E709" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="F709" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="G709" t="n">
         <v>1</v>
@@ -26172,10 +26160,10 @@
         <v>709</v>
       </c>
       <c r="E710" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="F710" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="G710" t="n">
         <v>1</v>
@@ -26201,10 +26189,10 @@
         <v>710</v>
       </c>
       <c r="E711" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="F711" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="G711" t="n">
         <v>1</v>
@@ -26230,10 +26218,10 @@
         <v>711</v>
       </c>
       <c r="E712" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="F712" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="G712" t="n">
         <v>1</v>
@@ -26259,10 +26247,10 @@
         <v>712</v>
       </c>
       <c r="E713" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="F713" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="G713" t="n">
         <v>3</v>
@@ -26288,10 +26276,10 @@
         <v>713</v>
       </c>
       <c r="E714" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="F714" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="G714" t="n">
         <v>1</v>
@@ -26317,10 +26305,10 @@
         <v>714</v>
       </c>
       <c r="E715" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="F715" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="G715" t="n">
         <v>2</v>
@@ -26346,10 +26334,10 @@
         <v>715</v>
       </c>
       <c r="E716" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="F716" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="G716" t="n">
         <v>1</v>
@@ -26375,10 +26363,10 @@
         <v>716</v>
       </c>
       <c r="E717" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="F717" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="G717" t="n">
         <v>1</v>
@@ -26404,10 +26392,10 @@
         <v>717</v>
       </c>
       <c r="E718" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="F718" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="G718" t="n">
         <v>2</v>
@@ -26433,10 +26421,10 @@
         <v>718</v>
       </c>
       <c r="E719" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="F719" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="G719" t="n">
         <v>1</v>
@@ -26462,10 +26450,10 @@
         <v>719</v>
       </c>
       <c r="E720" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="F720" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="G720" t="n">
         <v>1</v>
@@ -26491,10 +26479,10 @@
         <v>720</v>
       </c>
       <c r="E721" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="F721" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="G721" t="n">
         <v>1</v>
@@ -26520,10 +26508,10 @@
         <v>721</v>
       </c>
       <c r="E722" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="F722" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="G722" t="n">
         <v>1</v>
@@ -26549,10 +26537,10 @@
         <v>722</v>
       </c>
       <c r="E723" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="F723" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="G723" t="n">
         <v>1</v>
@@ -26578,10 +26566,10 @@
         <v>723</v>
       </c>
       <c r="E724" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="F724" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="G724" t="n">
         <v>1</v>
@@ -26607,10 +26595,10 @@
         <v>724</v>
       </c>
       <c r="E725" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="F725" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="G725" t="n">
         <v>1</v>
@@ -26636,10 +26624,10 @@
         <v>725</v>
       </c>
       <c r="E726" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="F726" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="G726" t="n">
         <v>1</v>
@@ -26665,10 +26653,10 @@
         <v>726</v>
       </c>
       <c r="E727" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="F727" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="G727" t="n">
         <v>1</v>
@@ -26694,10 +26682,10 @@
         <v>727</v>
       </c>
       <c r="E728" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="F728" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="G728" t="n">
         <v>1</v>
@@ -26723,10 +26711,10 @@
         <v>728</v>
       </c>
       <c r="E729" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="F729" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="G729" t="n">
         <v>1</v>
@@ -26752,10 +26740,10 @@
         <v>729</v>
       </c>
       <c r="E730" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="F730" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="G730" t="n">
         <v>1</v>
@@ -26781,10 +26769,10 @@
         <v>730</v>
       </c>
       <c r="E731" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="F731" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="G731" t="n">
         <v>1</v>
@@ -26810,10 +26798,10 @@
         <v>731</v>
       </c>
       <c r="E732" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="F732" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="G732" t="n">
         <v>1</v>
@@ -26839,10 +26827,10 @@
         <v>732</v>
       </c>
       <c r="E733" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="F733" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="G733" t="n">
         <v>1</v>
@@ -26868,10 +26856,10 @@
         <v>733</v>
       </c>
       <c r="E734" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="F734" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="G734" t="n">
         <v>1</v>
@@ -26897,10 +26885,10 @@
         <v>734</v>
       </c>
       <c r="E735" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="F735" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="G735" t="n">
         <v>1</v>
@@ -26926,10 +26914,10 @@
         <v>735</v>
       </c>
       <c r="E736" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="F736" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="G736" t="n">
         <v>2</v>
@@ -26955,10 +26943,10 @@
         <v>736</v>
       </c>
       <c r="E737" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="F737" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="G737" t="n">
         <v>1</v>
@@ -26984,10 +26972,10 @@
         <v>737</v>
       </c>
       <c r="E738" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="F738" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="G738" t="n">
         <v>1</v>
@@ -27013,10 +27001,10 @@
         <v>738</v>
       </c>
       <c r="E739" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="F739" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="G739" t="n">
         <v>2</v>
@@ -27042,10 +27030,10 @@
         <v>739</v>
       </c>
       <c r="E740" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="F740" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="G740" t="n">
         <v>1</v>
@@ -27071,10 +27059,10 @@
         <v>740</v>
       </c>
       <c r="E741" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="F741" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="G741" t="n">
         <v>2</v>
@@ -27100,10 +27088,10 @@
         <v>741</v>
       </c>
       <c r="E742" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="F742" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="G742" t="n">
         <v>1</v>
@@ -27129,10 +27117,10 @@
         <v>742</v>
       </c>
       <c r="E743" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="F743" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="G743" t="n">
         <v>1</v>
@@ -27158,10 +27146,10 @@
         <v>743</v>
       </c>
       <c r="E744" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="F744" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="G744" t="n">
         <v>1</v>
@@ -27187,10 +27175,10 @@
         <v>744</v>
       </c>
       <c r="E745" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="F745" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="G745" t="n">
         <v>1</v>
@@ -27216,10 +27204,10 @@
         <v>745</v>
       </c>
       <c r="E746" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="F746" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="G746" t="n">
         <v>1</v>
@@ -27245,10 +27233,10 @@
         <v>746</v>
       </c>
       <c r="E747" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="F747" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="G747" t="n">
         <v>1</v>
@@ -27274,10 +27262,10 @@
         <v>747</v>
       </c>
       <c r="E748" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="F748" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="G748" t="n">
         <v>1</v>
@@ -27303,10 +27291,10 @@
         <v>748</v>
       </c>
       <c r="E749" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="F749" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="G749" t="n">
         <v>1</v>
@@ -27332,10 +27320,10 @@
         <v>749</v>
       </c>
       <c r="E750" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="F750" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="G750" t="n">
         <v>1</v>
@@ -27361,10 +27349,10 @@
         <v>750</v>
       </c>
       <c r="E751" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="F751" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="G751" t="n">
         <v>1</v>
@@ -27390,10 +27378,10 @@
         <v>751</v>
       </c>
       <c r="E752" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="F752" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="G752" t="n">
         <v>1</v>
@@ -27419,10 +27407,10 @@
         <v>752</v>
       </c>
       <c r="E753" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="F753" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="G753" t="n">
         <v>1</v>
@@ -27448,10 +27436,10 @@
         <v>753</v>
       </c>
       <c r="E754" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="F754" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="G754" t="n">
         <v>1</v>
@@ -27477,10 +27465,10 @@
         <v>754</v>
       </c>
       <c r="E755" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="F755" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="G755" t="n">
         <v>1</v>
@@ -27506,10 +27494,10 @@
         <v>755</v>
       </c>
       <c r="E756" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="F756" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="G756" t="n">
         <v>1</v>
@@ -27535,10 +27523,10 @@
         <v>756</v>
       </c>
       <c r="E757" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="F757" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="G757" t="n">
         <v>1</v>
@@ -27564,10 +27552,10 @@
         <v>757</v>
       </c>
       <c r="E758" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="F758" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="G758" t="n">
         <v>1</v>
@@ -27593,10 +27581,10 @@
         <v>758</v>
       </c>
       <c r="E759" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="F759" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="G759" t="n">
         <v>1</v>
@@ -27622,10 +27610,10 @@
         <v>759</v>
       </c>
       <c r="E760" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="F760" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="G760" t="n">
         <v>1</v>
@@ -27651,10 +27639,10 @@
         <v>760</v>
       </c>
       <c r="E761" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="F761" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="G761" t="n">
         <v>1</v>
@@ -27680,10 +27668,10 @@
         <v>761</v>
       </c>
       <c r="E762" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="F762" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="G762" t="n">
         <v>1</v>
@@ -27709,10 +27697,10 @@
         <v>762</v>
       </c>
       <c r="E763" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="F763" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="G763" t="n">
         <v>1</v>
@@ -27738,10 +27726,10 @@
         <v>763</v>
       </c>
       <c r="E764" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="F764" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="G764" t="n">
         <v>1</v>
@@ -27767,10 +27755,10 @@
         <v>764</v>
       </c>
       <c r="E765" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="F765" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="G765" t="n">
         <v>1</v>
@@ -27796,10 +27784,10 @@
         <v>765</v>
       </c>
       <c r="E766" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="F766" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="G766" t="n">
         <v>1</v>
@@ -27825,10 +27813,10 @@
         <v>766</v>
       </c>
       <c r="E767" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="F767" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="G767" t="n">
         <v>1</v>
@@ -27854,10 +27842,10 @@
         <v>767</v>
       </c>
       <c r="E768" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="F768" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="G768" t="n">
         <v>1</v>
@@ -27883,10 +27871,10 @@
         <v>768</v>
       </c>
       <c r="E769" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="F769" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="G769" t="n">
         <v>1</v>
@@ -27912,10 +27900,10 @@
         <v>769</v>
       </c>
       <c r="E770" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="F770" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="G770" t="n">
         <v>1</v>
@@ -27941,10 +27929,10 @@
         <v>770</v>
       </c>
       <c r="E771" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="F771" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="G771" t="n">
         <v>3</v>
@@ -27970,10 +27958,10 @@
         <v>771</v>
       </c>
       <c r="E772" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="F772" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="G772" t="n">
         <v>3</v>
@@ -27999,10 +27987,10 @@
         <v>772</v>
       </c>
       <c r="E773" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="F773" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="G773" t="n">
         <v>1</v>
@@ -28028,10 +28016,10 @@
         <v>773</v>
       </c>
       <c r="E774" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="F774" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="G774" t="n">
         <v>1</v>
@@ -28057,10 +28045,10 @@
         <v>774</v>
       </c>
       <c r="E775" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="F775" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="G775" t="n">
         <v>1</v>
@@ -28086,10 +28074,10 @@
         <v>775</v>
       </c>
       <c r="E776" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="F776" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="G776" t="n">
         <v>1</v>
@@ -28115,10 +28103,10 @@
         <v>776</v>
       </c>
       <c r="E777" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="F777" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="G777" t="n">
         <v>1</v>
@@ -28144,10 +28132,10 @@
         <v>777</v>
       </c>
       <c r="E778" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="F778" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="G778" t="n">
         <v>1</v>
@@ -28173,10 +28161,10 @@
         <v>778</v>
       </c>
       <c r="E779" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="F779" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="G779" t="n">
         <v>1</v>
@@ -28202,10 +28190,10 @@
         <v>779</v>
       </c>
       <c r="E780" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="F780" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="G780" t="n">
         <v>1</v>
@@ -28231,10 +28219,10 @@
         <v>780</v>
       </c>
       <c r="E781" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="F781" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="G781" t="n">
         <v>1</v>
@@ -28260,10 +28248,10 @@
         <v>781</v>
       </c>
       <c r="E782" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="F782" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="G782" t="n">
         <v>1</v>
@@ -28289,10 +28277,10 @@
         <v>782</v>
       </c>
       <c r="E783" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="F783" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="G783" t="n">
         <v>1</v>
@@ -28318,10 +28306,10 @@
         <v>783</v>
       </c>
       <c r="E784" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="F784" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="G784" t="n">
         <v>1</v>
@@ -28347,10 +28335,10 @@
         <v>784</v>
       </c>
       <c r="E785" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="F785" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="G785" t="n">
         <v>1</v>
@@ -28376,10 +28364,10 @@
         <v>785</v>
       </c>
       <c r="E786" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="F786" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="G786" t="n">
         <v>1</v>
@@ -28405,10 +28393,10 @@
         <v>786</v>
       </c>
       <c r="E787" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="F787" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="G787" t="n">
         <v>1</v>
@@ -28434,10 +28422,10 @@
         <v>787</v>
       </c>
       <c r="E788" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="F788" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="G788" t="n">
         <v>1</v>
@@ -28463,10 +28451,10 @@
         <v>788</v>
       </c>
       <c r="E789" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="F789" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="G789" t="n">
         <v>1</v>
@@ -28492,10 +28480,10 @@
         <v>789</v>
       </c>
       <c r="E790" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="F790" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="G790" t="n">
         <v>1</v>
@@ -28521,10 +28509,10 @@
         <v>790</v>
       </c>
       <c r="E791" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="F791" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="G791" t="n">
         <v>1</v>
@@ -28550,10 +28538,10 @@
         <v>791</v>
       </c>
       <c r="E792" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="F792" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="G792" t="n">
         <v>1</v>
@@ -28579,10 +28567,10 @@
         <v>792</v>
       </c>
       <c r="E793" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="F793" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="G793" t="n">
         <v>1</v>
@@ -28608,10 +28596,10 @@
         <v>793</v>
       </c>
       <c r="E794" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="F794" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="G794" t="n">
         <v>1</v>
@@ -28637,10 +28625,10 @@
         <v>794</v>
       </c>
       <c r="E795" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="F795" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="G795" t="n">
         <v>2</v>
@@ -28666,10 +28654,10 @@
         <v>795</v>
       </c>
       <c r="E796" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="F796" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="G796" t="n">
         <v>1</v>
@@ -28695,10 +28683,10 @@
         <v>796</v>
       </c>
       <c r="E797" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="F797" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="G797" t="n">
         <v>1</v>
@@ -28724,10 +28712,10 @@
         <v>797</v>
       </c>
       <c r="E798" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="F798" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="G798" t="n">
         <v>1</v>
@@ -28753,10 +28741,10 @@
         <v>798</v>
       </c>
       <c r="E799" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="F799" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="G799" t="n">
         <v>1</v>
@@ -28782,10 +28770,10 @@
         <v>799</v>
       </c>
       <c r="E800" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="F800" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="G800" t="n">
         <v>1</v>
@@ -28811,10 +28799,10 @@
         <v>800</v>
       </c>
       <c r="E801" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="F801" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="G801" t="n">
         <v>2</v>
@@ -28840,10 +28828,10 @@
         <v>801</v>
       </c>
       <c r="E802" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="F802" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="G802" t="n">
         <v>1</v>
@@ -28869,10 +28857,10 @@
         <v>802</v>
       </c>
       <c r="E803" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="F803" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="G803" t="n">
         <v>1</v>
@@ -28898,10 +28886,10 @@
         <v>803</v>
       </c>
       <c r="E804" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="F804" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="G804" t="n">
         <v>1</v>
@@ -28927,10 +28915,10 @@
         <v>804</v>
       </c>
       <c r="E805" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="F805" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="G805" t="n">
         <v>1</v>
@@ -28956,10 +28944,10 @@
         <v>805</v>
       </c>
       <c r="E806" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="F806" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="G806" t="n">
         <v>1</v>
@@ -28985,10 +28973,10 @@
         <v>806</v>
       </c>
       <c r="E807" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="F807" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="G807" t="n">
         <v>1</v>
@@ -29014,10 +29002,10 @@
         <v>807</v>
       </c>
       <c r="E808" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="F808" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="G808" t="n">
         <v>1</v>
@@ -29043,10 +29031,10 @@
         <v>808</v>
       </c>
       <c r="E809" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="F809" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="G809" t="n">
         <v>1</v>
@@ -29072,10 +29060,10 @@
         <v>809</v>
       </c>
       <c r="E810" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="F810" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="G810" t="n">
         <v>1</v>
@@ -29101,10 +29089,10 @@
         <v>810</v>
       </c>
       <c r="E811" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="F811" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="G811" t="n">
         <v>1</v>
@@ -29130,10 +29118,10 @@
         <v>811</v>
       </c>
       <c r="E812" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="F812" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="G812" t="n">
         <v>1</v>
@@ -29159,10 +29147,10 @@
         <v>812</v>
       </c>
       <c r="E813" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="F813" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="G813" t="n">
         <v>1</v>
@@ -29188,10 +29176,10 @@
         <v>813</v>
       </c>
       <c r="E814" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="F814" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="G814" t="n">
         <v>1</v>
@@ -29217,10 +29205,10 @@
         <v>814</v>
       </c>
       <c r="E815" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="F815" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="G815" t="n">
         <v>1</v>
@@ -29246,10 +29234,10 @@
         <v>815</v>
       </c>
       <c r="E816" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="F816" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="G816" t="n">
         <v>1</v>
@@ -29275,10 +29263,10 @@
         <v>816</v>
       </c>
       <c r="E817" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="F817" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="G817" t="n">
         <v>1</v>
@@ -29304,10 +29292,10 @@
         <v>817</v>
       </c>
       <c r="E818" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="F818" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="G818" t="n">
         <v>1</v>
@@ -29333,10 +29321,10 @@
         <v>818</v>
       </c>
       <c r="E819" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="F819" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="G819" t="n">
         <v>1</v>
@@ -29362,10 +29350,10 @@
         <v>819</v>
       </c>
       <c r="E820" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="F820" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="G820" t="n">
         <v>1</v>
@@ -29391,10 +29379,10 @@
         <v>820</v>
       </c>
       <c r="E821" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="F821" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="G821" t="n">
         <v>1</v>
@@ -29420,10 +29408,10 @@
         <v>821</v>
       </c>
       <c r="E822" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="F822" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="G822" t="n">
         <v>1</v>
@@ -29449,10 +29437,10 @@
         <v>822</v>
       </c>
       <c r="E823" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="F823" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="G823" t="n">
         <v>1</v>
@@ -29478,10 +29466,10 @@
         <v>823</v>
       </c>
       <c r="E824" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="F824" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="G824" t="n">
         <v>1</v>
@@ -29507,10 +29495,10 @@
         <v>824</v>
       </c>
       <c r="E825" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="F825" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="G825" t="n">
         <v>1</v>
@@ -29536,10 +29524,10 @@
         <v>825</v>
       </c>
       <c r="E826" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="F826" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="G826" t="n">
         <v>1</v>
@@ -29565,10 +29553,10 @@
         <v>826</v>
       </c>
       <c r="E827" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="F827" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="G827" t="n">
         <v>1</v>
@@ -29594,10 +29582,10 @@
         <v>827</v>
       </c>
       <c r="E828" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="F828" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="G828" t="n">
         <v>1</v>
@@ -29623,10 +29611,10 @@
         <v>828</v>
       </c>
       <c r="E829" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="F829" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="G829" t="n">
         <v>1</v>
@@ -29652,10 +29640,10 @@
         <v>829</v>
       </c>
       <c r="E830" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="F830" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="G830" t="n">
         <v>1</v>
@@ -29681,10 +29669,10 @@
         <v>830</v>
       </c>
       <c r="E831" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="F831" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="G831" t="n">
         <v>1</v>
@@ -29710,10 +29698,10 @@
         <v>831</v>
       </c>
       <c r="E832" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="F832" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="G832" t="n">
         <v>1</v>
@@ -29739,10 +29727,10 @@
         <v>832</v>
       </c>
       <c r="E833" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="F833" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="G833" t="n">
         <v>1</v>
@@ -29768,10 +29756,10 @@
         <v>833</v>
       </c>
       <c r="E834" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="F834" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
       <c r="G834" t="n">
         <v>2</v>
@@ -29797,10 +29785,10 @@
         <v>834</v>
       </c>
       <c r="E835" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="F835" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="G835" t="n">
         <v>1</v>
@@ -29826,10 +29814,10 @@
         <v>835</v>
       </c>
       <c r="E836" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="F836" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="G836" t="n">
         <v>1</v>
@@ -29855,10 +29843,10 @@
         <v>836</v>
       </c>
       <c r="E837" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="F837" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="G837" t="n">
         <v>1</v>
@@ -29884,10 +29872,10 @@
         <v>837</v>
       </c>
       <c r="E838" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="F838" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="G838" t="n">
         <v>1</v>
@@ -29913,10 +29901,10 @@
         <v>838</v>
       </c>
       <c r="E839" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="F839" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="G839" t="n">
         <v>1</v>
@@ -29942,10 +29930,10 @@
         <v>839</v>
       </c>
       <c r="E840" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="F840" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="G840" t="n">
         <v>1</v>
@@ -29971,10 +29959,10 @@
         <v>840</v>
       </c>
       <c r="E841" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="F841" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="G841" t="n">
         <v>1</v>
@@ -30000,10 +29988,10 @@
         <v>841</v>
       </c>
       <c r="E842" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="F842" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="G842" t="n">
         <v>1</v>
@@ -30029,10 +30017,10 @@
         <v>842</v>
       </c>
       <c r="E843" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="F843" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
       <c r="G843" t="n">
         <v>1</v>
@@ -30058,10 +30046,10 @@
         <v>843</v>
       </c>
       <c r="E844" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="F844" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
       <c r="G844" t="n">
         <v>1</v>
@@ -30087,10 +30075,10 @@
         <v>844</v>
       </c>
       <c r="E845" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="F845" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="G845" t="n">
         <v>1</v>
@@ -30116,10 +30104,10 @@
         <v>845</v>
       </c>
       <c r="E846" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="F846" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="G846" t="n">
         <v>1</v>
@@ -30145,10 +30133,10 @@
         <v>846</v>
       </c>
       <c r="E847" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="F847" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="G847" t="n">
         <v>2</v>
@@ -30174,10 +30162,10 @@
         <v>847</v>
       </c>
       <c r="E848" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="F848" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="G848" t="n">
         <v>1</v>
@@ -30203,10 +30191,10 @@
         <v>848</v>
       </c>
       <c r="E849" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="F849" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="G849" t="n">
         <v>1</v>
@@ -30232,10 +30220,10 @@
         <v>849</v>
       </c>
       <c r="E850" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="F850" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="G850" t="n">
         <v>1</v>
@@ -30261,10 +30249,10 @@
         <v>850</v>
       </c>
       <c r="E851" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="F851" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
       <c r="G851" t="n">
         <v>1</v>
@@ -30290,10 +30278,10 @@
         <v>851</v>
       </c>
       <c r="E852" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="F852" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="G852" t="n">
         <v>1</v>
@@ -30319,10 +30307,10 @@
         <v>852</v>
       </c>
       <c r="E853" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="F853" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
       <c r="G853" t="n">
         <v>1</v>
@@ -30348,10 +30336,10 @@
         <v>853</v>
       </c>
       <c r="E854" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
       <c r="F854" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
       <c r="G854" t="n">
         <v>1</v>
@@ -30377,10 +30365,10 @@
         <v>854</v>
       </c>
       <c r="E855" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="F855" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="G855" t="n">
         <v>1</v>
@@ -30406,10 +30394,10 @@
         <v>855</v>
       </c>
       <c r="E856" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="F856" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="G856" t="n">
         <v>1</v>
@@ -30435,10 +30423,10 @@
         <v>856</v>
       </c>
       <c r="E857" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
       <c r="F857" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
       <c r="G857" t="n">
         <v>1</v>
@@ -30464,10 +30452,10 @@
         <v>857</v>
       </c>
       <c r="E858" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="F858" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="G858" t="n">
         <v>1</v>
@@ -30493,10 +30481,10 @@
         <v>858</v>
       </c>
       <c r="E859" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="F859" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
       <c r="G859" t="n">
         <v>1</v>
@@ -30522,10 +30510,10 @@
         <v>859</v>
       </c>
       <c r="E860" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="F860" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="G860" t="n">
         <v>1</v>
@@ -30551,10 +30539,10 @@
         <v>860</v>
       </c>
       <c r="E861" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="F861" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="G861" t="n">
         <v>1</v>
@@ -30580,10 +30568,10 @@
         <v>861</v>
       </c>
       <c r="E862" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="F862" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
       <c r="G862" t="n">
         <v>1</v>
@@ -30609,10 +30597,10 @@
         <v>862</v>
       </c>
       <c r="E863" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
       <c r="F863" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="G863" t="n">
         <v>1</v>
@@ -30638,10 +30626,10 @@
         <v>863</v>
       </c>
       <c r="E864" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="F864" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="G864" t="n">
         <v>1</v>
@@ -30667,10 +30655,10 @@
         <v>864</v>
       </c>
       <c r="E865" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="F865" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="G865" t="n">
         <v>1</v>
@@ -30696,10 +30684,10 @@
         <v>865</v>
       </c>
       <c r="E866" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="F866" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="G866" t="n">
         <v>1</v>
@@ -30725,10 +30713,10 @@
         <v>866</v>
       </c>
       <c r="E867" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="F867" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="G867" t="n">
         <v>1</v>
@@ -30754,10 +30742,10 @@
         <v>867</v>
       </c>
       <c r="E868" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
       <c r="F868" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
       <c r="G868" t="n">
         <v>1</v>
@@ -30783,10 +30771,10 @@
         <v>868</v>
       </c>
       <c r="E869" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="F869" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="G869" t="n">
         <v>1</v>
@@ -30812,10 +30800,10 @@
         <v>869</v>
       </c>
       <c r="E870" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
       <c r="F870" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
       <c r="G870" t="n">
         <v>1</v>
@@ -30841,10 +30829,10 @@
         <v>870</v>
       </c>
       <c r="E871" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="F871" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
       <c r="G871" t="n">
         <v>1</v>
@@ -30870,10 +30858,10 @@
         <v>871</v>
       </c>
       <c r="E872" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="F872" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="G872" t="n">
         <v>1</v>
@@ -30899,10 +30887,10 @@
         <v>872</v>
       </c>
       <c r="E873" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="F873" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="G873" t="n">
         <v>1</v>
@@ -30928,10 +30916,10 @@
         <v>873</v>
       </c>
       <c r="E874" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="F874" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="G874" t="n">
         <v>1</v>
@@ -30957,10 +30945,10 @@
         <v>874</v>
       </c>
       <c r="E875" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="F875" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="G875" t="n">
         <v>1</v>
@@ -30986,10 +30974,10 @@
         <v>875</v>
       </c>
       <c r="E876" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="F876" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
       <c r="G876" t="n">
         <v>1</v>
@@ -31015,10 +31003,10 @@
         <v>876</v>
       </c>
       <c r="E877" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
       <c r="F877" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="G877" t="n">
         <v>1</v>
@@ -31044,10 +31032,10 @@
         <v>877</v>
       </c>
       <c r="E878" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="F878" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
       <c r="G878" t="n">
         <v>1</v>
@@ -31073,10 +31061,10 @@
         <v>878</v>
       </c>
       <c r="E879" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="F879" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="G879" t="n">
         <v>1</v>
@@ -31102,10 +31090,10 @@
         <v>879</v>
       </c>
       <c r="E880" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="F880" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="G880" t="n">
         <v>1</v>
@@ -31131,10 +31119,10 @@
         <v>880</v>
       </c>
       <c r="E881" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="F881" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
       <c r="G881" t="n">
         <v>1</v>
@@ -31160,10 +31148,10 @@
         <v>881</v>
       </c>
       <c r="E882" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="F882" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="G882" t="n">
         <v>1</v>
@@ -31189,10 +31177,10 @@
         <v>882</v>
       </c>
       <c r="E883" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="F883" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="G883" t="n">
         <v>1</v>
@@ -31218,10 +31206,10 @@
         <v>883</v>
       </c>
       <c r="E884" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
       <c r="F884" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
       <c r="G884" t="n">
         <v>1</v>
@@ -31247,10 +31235,10 @@
         <v>884</v>
       </c>
       <c r="E885" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
       <c r="F885" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
       <c r="G885" t="n">
         <v>1</v>
@@ -31276,10 +31264,10 @@
         <v>885</v>
       </c>
       <c r="E886" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="F886" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
       <c r="G886" t="n">
         <v>1</v>
@@ -31305,10 +31293,10 @@
         <v>886</v>
       </c>
       <c r="E887" t="s">
-        <v>1735</v>
+        <v>1731</v>
       </c>
       <c r="F887" t="s">
-        <v>1736</v>
+        <v>1732</v>
       </c>
       <c r="G887" t="n">
         <v>4</v>
@@ -31334,10 +31322,10 @@
         <v>887</v>
       </c>
       <c r="E888" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="F888" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
       <c r="G888" t="n">
         <v>1</v>
@@ -31363,10 +31351,10 @@
         <v>888</v>
       </c>
       <c r="E889" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="F889" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="G889" t="n">
         <v>1</v>
@@ -31392,10 +31380,10 @@
         <v>889</v>
       </c>
       <c r="E890" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="F890" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
       <c r="G890" t="n">
         <v>1</v>

--- a/xlsx/ISO 4217_intext.xlsx
+++ b/xlsx/ISO 4217_intext.xlsx
@@ -29,7 +29,7 @@
     <t>国际标准化组织</t>
   </si>
   <si>
-    <t>政策_政策_美國_ISO 4217</t>
+    <t>体育运动_体育运动_伊朗_ISO 4217</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B4%A7</t>
@@ -21422,7 +21422,7 @@
         <v>1070</v>
       </c>
       <c r="G546" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H546" t="s">
         <v>4</v>
@@ -21538,7 +21538,7 @@
         <v>1078</v>
       </c>
       <c r="G550" t="n">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="H550" t="s">
         <v>4</v>
@@ -21567,7 +21567,7 @@
         <v>1080</v>
       </c>
       <c r="G551" t="n">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="H551" t="s">
         <v>4</v>
@@ -21625,7 +21625,7 @@
         <v>1084</v>
       </c>
       <c r="G553" t="n">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H553" t="s">
         <v>4</v>
@@ -21654,7 +21654,7 @@
         <v>1086</v>
       </c>
       <c r="G554" t="n">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H554" t="s">
         <v>4</v>
@@ -21683,7 +21683,7 @@
         <v>1088</v>
       </c>
       <c r="G555" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H555" t="s">
         <v>4</v>
@@ -21741,7 +21741,7 @@
         <v>1092</v>
       </c>
       <c r="G557" t="n">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="H557" t="s">
         <v>4</v>
@@ -21770,7 +21770,7 @@
         <v>1094</v>
       </c>
       <c r="G558" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H558" t="s">
         <v>4</v>
